--- a/data/programacion/Fichas/Fichas Unidad Endoscopia.xlsx
+++ b/data/programacion/Fichas/Fichas Unidad Endoscopia.xlsx
@@ -8,38 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC4595-01F0-4B9B-AE23-00490635A560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A029DD5-0773-4563-B13C-406EC4F35A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{53181A7A-0377-4239-9570-5BAE18493DD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{53181A7A-0377-4239-9570-5BAE18493DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="3" r:id="rId1"/>
-    <sheet name="PM ACTIVIDAD" sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="Prestaciones" sheetId="2" r:id="rId3"/>
-    <sheet name="PM_PROGMEDICA" sheetId="24" state="hidden" r:id="rId4"/>
-    <sheet name="Ficha Programación" sheetId="1" state="hidden" r:id="rId5"/>
-    <sheet name="OF" sheetId="9" r:id="rId6"/>
-    <sheet name="JH" sheetId="10" r:id="rId7"/>
-    <sheet name="VR" sheetId="12" r:id="rId8"/>
-    <sheet name="EG" sheetId="14" r:id="rId9"/>
-    <sheet name="VJ" sheetId="15" r:id="rId10"/>
-    <sheet name="JG" sheetId="17" r:id="rId11"/>
-    <sheet name="MG" sheetId="18" r:id="rId12"/>
-    <sheet name="LR" sheetId="19" r:id="rId13"/>
-    <sheet name="DR" sheetId="21" r:id="rId14"/>
+    <sheet name="Prestaciones" sheetId="2" r:id="rId2"/>
+    <sheet name="Ficha Programación" sheetId="1" r:id="rId3"/>
+    <sheet name="OF" sheetId="9" r:id="rId4"/>
+    <sheet name="JH" sheetId="10" r:id="rId5"/>
+    <sheet name="VR" sheetId="12" r:id="rId6"/>
+    <sheet name="EG" sheetId="14" r:id="rId7"/>
+    <sheet name="VJ" sheetId="15" r:id="rId8"/>
+    <sheet name="JG" sheetId="17" r:id="rId9"/>
+    <sheet name="MG" sheetId="18" r:id="rId10"/>
+    <sheet name="LR" sheetId="19" r:id="rId11"/>
+    <sheet name="DR" sheetId="21" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Prestaciones!$A$1:$G$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">DR!$B$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">EG!$B$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">JG!$B$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">JH!$B$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">LR!$B$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">MG!$B$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">OF!$B$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Prestaciones!$A$1:$G$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">DR!$B$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">EG!$B$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">JG!$B$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">JH!$B$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">LR!$B$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">MG!$B$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">OF!$B$1:$H$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Personal!$A$1:$G$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">VJ!$B$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">VR!$B$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">VJ!$B$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">VR!$B$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -722,7 +720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="74">
   <si>
     <t>Lunes</t>
   </si>
@@ -835,13 +833,7 @@
     <t>Medicina interna [MI]</t>
   </si>
   <si>
-    <t>PONIACHIK TELLER, JAIME MELCHOR</t>
-  </si>
-  <si>
     <t>Médico(a) Cirujano(a)</t>
-  </si>
-  <si>
-    <t>ID ACTIVIDAD</t>
   </si>
   <si>
     <t>Docencia e Investigación</t>
@@ -850,28 +842,7 @@
     <t>Gastroduodenoscopía (incluye esofagoscopía)</t>
   </si>
   <si>
-    <t>ACTIVIDAD HCUCH</t>
-  </si>
-  <si>
-    <t>TIPO ACTIVIDAD</t>
-  </si>
-  <si>
-    <t>CONSULTA</t>
-  </si>
-  <si>
-    <t>TELEMEDICINA</t>
-  </si>
-  <si>
     <t>Elastografia hepatica (informe fibroscan)</t>
-  </si>
-  <si>
-    <t>PROCEDIMIENTO</t>
-  </si>
-  <si>
-    <t>OTRAS ACTIVIDADES CLÍNICAS</t>
-  </si>
-  <si>
-    <t>ACTIVIDADES NO CLÍNICAS</t>
   </si>
   <si>
     <t>ID PREST</t>
@@ -978,7 +949,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1190,7 +1161,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
@@ -1208,116 +1179,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>23938</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>189029</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10429876" y="0"/>
-          <a:ext cx="1309812" cy="446204"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="Logos y escudos institucionales de la Escuela de Salud Pública - Escuela de  Salud Pública">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9848850" y="0"/>
-          <a:ext cx="561975" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1618,13 +1479,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,19 +1509,19 @@
         <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1669,10 +1529,10 @@
         <v>123456</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>22</v>
@@ -1695,10 +1555,10 @@
         <v>678910</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3">
         <v>33</v>
@@ -1721,10 +1581,10 @@
         <v>321654</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3">
         <v>22</v>
@@ -1747,10 +1607,10 @@
         <v>987321</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3">
         <v>22</v>
@@ -1773,10 +1633,10 @@
         <v>951843</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3">
         <v>22</v>
@@ -1799,10 +1659,10 @@
         <v>357681</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3">
         <v>22</v>
@@ -1825,10 +1685,10 @@
         <v>852963</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3">
         <v>22</v>
@@ -1851,10 +1711,10 @@
         <v>147258</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3">
         <v>22</v>
@@ -1877,10 +1737,10 @@
         <v>369874</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3">
         <v>22</v>
@@ -1905,1152 +1765,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <sheetPr>
-    <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <f>SUMIF(Personal!A:A,VJ!C4,Personal!D:D)</f>
-        <v>22</v>
-      </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <f>SUMIF(Personal!B:B,VJ!C3,Personal!A:A)</f>
-        <v>951843</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <f>COUNTA(D8:H33)*0.5</f>
-        <v>33</v>
-      </c>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="str">
-        <f>IFERROR(VLOOKUP(C4,Personal!A:C,3,FALSE),"-")</f>
-        <v>Médico(a) Cirujano(a)</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>0.39583333333333398</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.5625</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>0.5625</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.72916666666666596</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.79166666666666596</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0D00-000000000000}">
-          <x14:formula1>
-            <xm:f>Personal!$B$2:$B$68</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0D00-000001000000}">
-          <x14:formula1>
-            <xm:f>Prestaciones!$D$2:$D$102</xm:f>
-          </x14:formula1>
-          <xm:sqref>D8:H33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <tabColor theme="9"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:H33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1">
-        <f>SUMIF(Personal!A:A,JG!C4,Personal!D:D)</f>
-        <v>22</v>
-      </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <f>SUMIF(Personal!B:B,JG!C3,Personal!A:A)</f>
-        <v>357681</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <f>COUNTA(D8:H33)*0.5</f>
-        <v>22</v>
-      </c>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="str">
-        <f>IFERROR(VLOOKUP(C4,Personal!A:C,3,FALSE),"-")</f>
-        <v>Médico(a) Cirujano(a)</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>0.3125</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>0.39583333333333398</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>0.4375</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.5625</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
-        <v>0.5625</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
-        <v>0.6875</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.72916666666666596</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.79166666666666596</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="C33" s="6">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0F00-000000000000}">
-          <x14:formula1>
-            <xm:f>Personal!$B$2:$B$68</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0F00-000001000000}">
-          <x14:formula1>
-            <xm:f>Prestaciones!$D$2:$D$102</xm:f>
-          </x14:formula1>
-          <xm:sqref>D8:H33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3083,7 +1797,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
@@ -3120,7 +1834,7 @@
         <v>Médico(a) Cirujano(a)</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -3210,16 +1924,16 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H12" s="16"/>
     </row>
@@ -3231,16 +1945,16 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H13" s="16"/>
     </row>
@@ -3252,16 +1966,16 @@
         <v>0.4375</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H14" s="16"/>
     </row>
@@ -3273,16 +1987,16 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H15" s="16"/>
     </row>
@@ -3294,16 +2008,16 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H16" s="16"/>
     </row>
@@ -3315,16 +2029,16 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H17" s="16"/>
     </row>
@@ -3336,16 +2050,16 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H18" s="16"/>
     </row>
@@ -3363,10 +2077,10 @@
         <v>6</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H19" s="16"/>
     </row>
@@ -3378,10 +2092,10 @@
         <v>0.5625</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="10"/>
@@ -3395,10 +2109,10 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="10"/>
@@ -3412,10 +2126,10 @@
         <v>0.60416666666666596</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3429,10 +2143,10 @@
         <v>0.625</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3446,10 +2160,10 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3463,10 +2177,10 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3601,7 +2315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3634,7 +2348,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
@@ -3671,7 +2385,7 @@
         <v>Médico(a) Cirujano(a)</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -3749,14 +2463,14 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -3768,14 +2482,14 @@
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -3787,14 +2501,14 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -3806,14 +2520,14 @@
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -3825,14 +2539,14 @@
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -3844,14 +2558,14 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -3863,14 +2577,14 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -3882,14 +2596,14 @@
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -3918,11 +2632,11 @@
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -3935,11 +2649,11 @@
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -3952,11 +2666,11 @@
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -3969,11 +2683,11 @@
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -3986,11 +2700,11 @@
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -4003,11 +2717,11 @@
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -4020,11 +2734,11 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -4037,11 +2751,11 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -4054,11 +2768,11 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -4152,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -4160,9 +2874,7 @@
   </sheetPr>
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4185,7 +2897,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
@@ -4222,10 +2934,10 @@
         <v>Médico(a) Cirujano(a)</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -4301,14 +3013,14 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -4320,14 +3032,14 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="21" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -4339,14 +3051,14 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -4358,14 +3070,14 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -4377,14 +3089,14 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -4396,14 +3108,14 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -4415,14 +3127,14 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -4434,14 +3146,14 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -4453,14 +3165,14 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -4471,10 +3183,10 @@
         <v>0.5625</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="21" t="s">
@@ -4492,17 +3204,17 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -4516,10 +3228,10 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -4532,13 +3244,13 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -4551,13 +3263,13 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -4572,7 +3284,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -4705,264 +3417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="3">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="3">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="3">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
-  </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4981,16 +3440,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>12</v>
@@ -5007,7 +3466,6 @@
         <v>7</v>
       </c>
       <c r="C2" s="3">
-        <f>VLOOKUP(B2,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D2" s="3" t="str">
@@ -5027,10 +3485,9 @@
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3">
-        <f>VLOOKUP(B3,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D3" s="3" t="str">
@@ -5053,7 +3510,6 @@
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <f>VLOOKUP(B4,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D4" s="3" t="str">
@@ -5073,10 +3529,9 @@
         <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3">
-        <f>VLOOKUP(B5,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D5" s="3" t="str">
@@ -5099,7 +3554,6 @@
         <v>21</v>
       </c>
       <c r="C6" s="3">
-        <f>VLOOKUP(B6,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>5</v>
       </c>
       <c r="D6" s="3" t="str">
@@ -5122,7 +3576,6 @@
         <v>27</v>
       </c>
       <c r="C7" s="3">
-        <f>VLOOKUP(B7,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="D7" s="3" t="str">
@@ -5145,7 +3598,6 @@
         <v>24</v>
       </c>
       <c r="C8" s="3">
-        <f>VLOOKUP(B8,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>9</v>
       </c>
       <c r="D8" s="3" t="str">
@@ -5168,7 +3620,6 @@
         <v>23</v>
       </c>
       <c r="C9" s="3">
-        <f>VLOOKUP(B9,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>8</v>
       </c>
       <c r="D9" s="3" t="str">
@@ -5189,10 +3640,9 @@
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3">
-        <f>VLOOKUP(B10,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>21</v>
       </c>
       <c r="D10" s="3" t="str">
@@ -5210,10 +3660,9 @@
         <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3">
-        <f>VLOOKUP(B11,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>20</v>
       </c>
       <c r="D11" s="3" t="str">
@@ -5236,7 +3685,6 @@
         <v>26</v>
       </c>
       <c r="C12" s="3">
-        <f>VLOOKUP(B12,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>11</v>
       </c>
       <c r="D12" s="3" t="str">
@@ -5259,7 +3707,6 @@
         <v>25</v>
       </c>
       <c r="C13" s="3">
-        <f>VLOOKUP(B13,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>10</v>
       </c>
       <c r="D13" s="3" t="str">
@@ -5280,7 +3727,6 @@
         <v>22</v>
       </c>
       <c r="C14" s="3">
-        <f>VLOOKUP(B14,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="D14" s="3" t="str">
@@ -5301,7 +3747,6 @@
         <v>28</v>
       </c>
       <c r="C15" s="3">
-        <f>VLOOKUP(B15,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>12</v>
       </c>
       <c r="D15" s="3" t="str">
@@ -5324,7 +3769,6 @@
         <v>29</v>
       </c>
       <c r="C16" s="3">
-        <f>VLOOKUP(B16,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>13</v>
       </c>
       <c r="D16" s="3" t="str">
@@ -5345,7 +3789,6 @@
         <v>30</v>
       </c>
       <c r="C17" s="3">
-        <f>VLOOKUP(B17,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>14</v>
       </c>
       <c r="D17" s="3" t="str">
@@ -5366,7 +3809,6 @@
         <v>31</v>
       </c>
       <c r="C18" s="3">
-        <f>VLOOKUP(B18,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>15</v>
       </c>
       <c r="D18" s="3" t="str">
@@ -5384,10 +3826,9 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3">
-        <f>VLOOKUP(B19,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>18</v>
       </c>
       <c r="D19" s="3" t="str">
@@ -5408,7 +3849,6 @@
         <v>7</v>
       </c>
       <c r="C20" s="3">
-        <f>VLOOKUP(B20,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="D20" s="3" t="str">
@@ -5426,10 +3866,9 @@
         <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3">
-        <f>VLOOKUP(B21,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="D21" s="3" t="str">
@@ -5450,7 +3889,6 @@
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <f>VLOOKUP(B22,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>3</v>
       </c>
       <c r="D22" s="3" t="str">
@@ -5468,10 +3906,9 @@
         <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3">
-        <f>VLOOKUP(B23,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>4</v>
       </c>
       <c r="D23" s="3" t="str">
@@ -5486,13 +3923,12 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="3">
-        <f>VLOOKUP(B24,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>16</v>
       </c>
       <c r="D24" s="3" t="str">
@@ -5507,13 +3943,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="3">
-        <f>VLOOKUP(B25,'PM ACTIVIDAD'!A:B,2,FALSE)</f>
         <v>17</v>
       </c>
       <c r="D25" s="3" t="str">
@@ -5534,26 +3969,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5571,9 +3994,6 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="8" t="s">
         <v>17</v>
       </c>
@@ -5971,7 +4391,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -5993,7 +4412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -6001,7 +4420,7 @@
   </sheetPr>
   <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6024,7 +4443,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
@@ -6061,10 +4480,10 @@
         <v>Médico(a) Cirujano(a)</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -6128,14 +4547,14 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -6147,14 +4566,14 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -6166,14 +4585,14 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -6185,14 +4604,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -6204,14 +4623,14 @@
         <v>0.4375</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -6223,14 +4642,14 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -6242,14 +4661,14 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -6261,14 +4680,14 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -6280,14 +4699,14 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -6299,14 +4718,14 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H19" s="3"/>
     </row>
@@ -6318,14 +4737,14 @@
         <v>0.5625</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H20" s="3"/>
     </row>
@@ -6337,14 +4756,14 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -6356,12 +4775,12 @@
         <v>0.60416666666666596</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -6373,12 +4792,12 @@
         <v>0.625</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H23" s="3"/>
     </row>
@@ -6390,12 +4809,12 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -6407,12 +4826,12 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H25" s="3"/>
     </row>
@@ -6545,7 +4964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -6578,7 +4997,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
@@ -6615,7 +5034,7 @@
         <v>Médico(a) Cirujano(a)</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -6680,11 +5099,11 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -6696,14 +5115,14 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -6715,14 +5134,14 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="22" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3"/>
     </row>
@@ -6734,14 +5153,14 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -6753,14 +5172,14 @@
         <v>0.4375</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -6772,14 +5191,14 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -6791,14 +5210,14 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -6810,14 +5229,14 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -6829,14 +5248,14 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3"/>
     </row>
@@ -6848,10 +5267,10 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="10"/>
@@ -6878,14 +5297,14 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="22" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H21" s="3"/>
     </row>
@@ -6897,14 +5316,14 @@
         <v>0.60416666666666596</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -6916,10 +5335,10 @@
         <v>0.625</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -6933,10 +5352,10 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6950,10 +5369,10 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6967,7 +5386,7 @@
         <v>0.6875</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -6982,7 +5401,7 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -6997,7 +5416,7 @@
         <v>0.72916666666666596</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -7012,7 +5431,7 @@
         <v>0.75</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -7096,7 +5515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -7129,7 +5548,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
@@ -7166,7 +5585,7 @@
         <v>Médico(a) Cirujano(a)</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -7230,13 +5649,13 @@
         <v>0.35416666666666702</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="3"/>
@@ -7249,17 +5668,17 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -7270,17 +5689,17 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -7291,19 +5710,19 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -7314,17 +5733,17 @@
         <v>0.4375</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -7335,14 +5754,14 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -7354,14 +5773,14 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H16" s="3"/>
     </row>
@@ -7373,14 +5792,14 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -7392,7 +5811,7 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -7407,7 +5826,7 @@
         <v>0.54166666666666596</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7435,7 +5854,7 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -7450,10 +5869,10 @@
         <v>0.60416666666666596</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -7467,10 +5886,10 @@
         <v>0.625</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -7484,10 +5903,10 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -7501,10 +5920,10 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -7518,10 +5937,10 @@
         <v>0.6875</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -7535,10 +5954,10 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -7647,7 +6066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -7680,7 +6099,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>17</v>
@@ -7717,7 +6136,7 @@
         <v>Médico(a) Cirujano(a)</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -7782,11 +6201,11 @@
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -7799,11 +6218,11 @@
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H11" s="15"/>
     </row>
@@ -7816,11 +6235,11 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -7833,11 +6252,11 @@
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -7850,11 +6269,11 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -7867,11 +6286,11 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -7884,11 +6303,11 @@
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -7901,11 +6320,11 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -7918,11 +6337,11 @@
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="21" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H18" s="15"/>
     </row>
@@ -7935,11 +6354,11 @@
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -7952,11 +6371,11 @@
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H20" s="15"/>
     </row>
@@ -7969,11 +6388,11 @@
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -7986,14 +6405,14 @@
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -8005,14 +6424,14 @@
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -8024,14 +6443,14 @@
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -8043,14 +6462,14 @@
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -8062,11 +6481,11 @@
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H26" s="3"/>
     </row>
@@ -8079,11 +6498,11 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -8096,11 +6515,11 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H28" s="3"/>
     </row>
@@ -8113,11 +6532,11 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H29" s="3"/>
     </row>
@@ -8195,4 +6614,1150 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="4" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUMIF(Personal!A:A,VJ!C4,Personal!D:D)</f>
+        <v>22</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUMIF(Personal!B:B,VJ!C3,Personal!A:A)</f>
+        <v>951843</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <f>COUNTA(D8:H33)*0.5</f>
+        <v>33</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IFERROR(VLOOKUP(C4,Personal!A:C,3,FALSE),"-")</f>
+        <v>Médico(a) Cirujano(a)</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+          <x14:formula1>
+            <xm:f>Personal!$B$2:$B$68</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+          <x14:formula1>
+            <xm:f>Prestaciones!$D$2:$D$102</xm:f>
+          </x14:formula1>
+          <xm:sqref>D8:H33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:H33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="4" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUMIF(Personal!A:A,JG!C4,Personal!D:D)</f>
+        <v>22</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <f>SUMIF(Personal!B:B,JG!C3,Personal!A:A)</f>
+        <v>357681</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <f>COUNTA(D8:H33)*0.5</f>
+        <v>22</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IFERROR(VLOOKUP(C4,Personal!A:C,3,FALSE),"-")</f>
+        <v>Médico(a) Cirujano(a)</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>0.3125</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>0.39583333333333398</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0F00-000000000000}">
+          <x14:formula1>
+            <xm:f>Personal!$B$2:$B$68</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0F00-000001000000}">
+          <x14:formula1>
+            <xm:f>Prestaciones!$D$2:$D$102</xm:f>
+          </x14:formula1>
+          <xm:sqref>D8:H33</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>